--- a/ejercicios sin transcribir/Prueba de escritorio ejercicio 2.xlsx
+++ b/ejercicios sin transcribir/Prueba de escritorio ejercicio 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programacion\guia 1 programacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manch\OneDrive\Escritorio\guia 1\tup_prog_1_2025_guia1\ejercicios sin transcribir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC7A628-21D2-44E2-A964-BAFA897C03F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB928235-F461-4EDB-BBFF-3EBA87E77C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>nro</t>
   </si>
@@ -57,18 +57,6 @@
     <t>P4</t>
   </si>
   <si>
-    <t>tm1</t>
-  </si>
-  <si>
-    <t>tm2</t>
-  </si>
-  <si>
-    <t>tm3</t>
-  </si>
-  <si>
-    <t>tm4</t>
-  </si>
-  <si>
     <t>Commentarios y salida</t>
   </si>
   <si>
@@ -97,6 +85,21 @@
   </si>
   <si>
     <t>"La mensualidad de Jazmín es 1135.27702702 pesos."</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>n4</t>
   </si>
 </sst>
 </file>
@@ -231,11 +234,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -243,8 +243,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:S33"/>
+    <sheetView tabSelected="1" topLeftCell="N16" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +541,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="4:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>4</v>
@@ -573,22 +576,22 @@
         <v>9</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="4:19" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="3">
         <v>1</v>
       </c>
@@ -607,7 +610,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -632,7 +635,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="4:19" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3">
         <v>3</v>
       </c>
@@ -653,7 +656,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -680,7 +683,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="4:19" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="3">
         <v>5</v>
       </c>
@@ -703,7 +706,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -732,7 +735,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="4:19" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="3">
         <v>7</v>
       </c>
@@ -742,7 +745,9 @@
       <c r="F12" s="4">
         <v>12</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>31</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -755,7 +760,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -786,7 +791,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="4:19" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="3">
         <v>9</v>
       </c>
@@ -813,7 +818,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -897,7 +902,9 @@
       <c r="I17" s="4">
         <v>4000.5</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="4">
+        <v>74</v>
+      </c>
       <c r="K17" s="4">
         <v>0.135135135135135</v>
       </c>
@@ -929,8 +936,12 @@
       <c r="I18" s="4">
         <v>4000.5</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="J18" s="4">
+        <v>74</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.135135135135135</v>
+      </c>
       <c r="L18" s="4">
         <v>0.162162162162162</v>
       </c>
@@ -961,7 +972,9 @@
       <c r="I19" s="4">
         <v>4000.5</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="4">
+        <v>74</v>
+      </c>
       <c r="K19" s="4">
         <v>0.135135135135135</v>
       </c>
@@ -997,7 +1010,9 @@
       <c r="I20" s="4">
         <v>4000.5</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="4">
+        <v>74</v>
+      </c>
       <c r="K20" s="4">
         <v>0.135135135135135</v>
       </c>
@@ -1035,7 +1050,9 @@
       <c r="I21" s="4">
         <v>4000.5</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="4">
+        <v>74</v>
+      </c>
       <c r="K21" s="4">
         <v>0.135135135135135</v>
       </c>
@@ -1075,7 +1092,9 @@
       <c r="I22" s="4">
         <v>4000.5</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4">
+        <v>74</v>
+      </c>
       <c r="K22" s="4">
         <v>0.135135135135135</v>
       </c>
@@ -1117,7 +1136,9 @@
       <c r="I23" s="4">
         <v>4000.5</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="4">
+        <v>74</v>
+      </c>
       <c r="K23" s="4">
         <v>0.135135135135135</v>
       </c>
@@ -1161,7 +1182,9 @@
       <c r="I24" s="4">
         <v>4000.5</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="4">
+        <v>74</v>
+      </c>
       <c r="K24" s="4">
         <v>0.135135135135135</v>
       </c>
@@ -1188,285 +1211,321 @@
       </c>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="4:19" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="5">
+    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D25" s="8">
         <v>20</v>
       </c>
-      <c r="E25" s="5">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5">
-        <v>12</v>
-      </c>
-      <c r="G25" s="5">
-        <v>31</v>
-      </c>
-      <c r="H25" s="5">
-        <v>21</v>
-      </c>
-      <c r="I25" s="5">
+      <c r="E25" s="8">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8">
+        <v>12</v>
+      </c>
+      <c r="G25" s="8">
+        <v>31</v>
+      </c>
+      <c r="H25" s="8">
+        <v>21</v>
+      </c>
+      <c r="I25" s="8">
         <v>4000.5</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5">
+      <c r="J25" s="8">
+        <v>74</v>
+      </c>
+      <c r="K25" s="8">
         <v>0.135135135135135</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="8">
         <v>0.162162162162162</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="8">
         <v>0.41891891891891803</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="8">
         <v>0.28378378378378299</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="8">
         <v>540.60810810800001</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="8">
         <v>648.72972972900004</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="Q25" s="8">
         <v>1675.8851351349999</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="8">
         <v>1135.2770270200001</v>
       </c>
-      <c r="S25" s="5" t="s">
-        <v>20</v>
+      <c r="S25" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-    </row>
-    <row r="27" spans="4:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="7">
-        <v>21</v>
-      </c>
-      <c r="E27" s="7">
-        <v>10</v>
-      </c>
-      <c r="F27" s="7">
-        <v>12</v>
-      </c>
-      <c r="G27" s="7">
-        <v>31</v>
-      </c>
-      <c r="H27" s="7">
-        <v>21</v>
-      </c>
-      <c r="I27" s="7">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D27" s="6">
+        <v>21</v>
+      </c>
+      <c r="E27" s="6">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6">
+        <v>12</v>
+      </c>
+      <c r="G27" s="6">
+        <v>31</v>
+      </c>
+      <c r="H27" s="6">
+        <v>21</v>
+      </c>
+      <c r="I27" s="6">
         <v>4000.5</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7">
+      <c r="J27" s="8">
+        <v>74</v>
+      </c>
+      <c r="K27" s="6">
         <v>0.135135135135135</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <v>0.162162162162162</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>0.41891891891891803</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="6">
         <v>0.28378378378378299</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="6">
         <v>540.60810810800001</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="6">
         <v>648.72972972900004</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="6">
         <v>1675.8851351349999</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="6">
         <v>1135.2770270200001</v>
       </c>
-      <c r="S27" s="5" t="s">
-        <v>21</v>
+      <c r="S27" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="6"/>
-    </row>
-    <row r="29" spans="4:19" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="7">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D29" s="6">
         <v>22</v>
       </c>
-      <c r="E29" s="7">
-        <v>10</v>
-      </c>
-      <c r="F29" s="7">
-        <v>12</v>
-      </c>
-      <c r="G29" s="7">
-        <v>31</v>
-      </c>
-      <c r="H29" s="7">
-        <v>21</v>
-      </c>
-      <c r="I29" s="7">
+      <c r="E29" s="6">
+        <v>10</v>
+      </c>
+      <c r="F29" s="6">
+        <v>12</v>
+      </c>
+      <c r="G29" s="6">
+        <v>31</v>
+      </c>
+      <c r="H29" s="6">
+        <v>21</v>
+      </c>
+      <c r="I29" s="6">
         <v>4000.5</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7">
+      <c r="J29" s="8">
+        <v>74</v>
+      </c>
+      <c r="K29" s="6">
         <v>0.135135135135135</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <v>0.162162162162162</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="6">
         <v>0.41891891891891803</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="6">
         <v>0.28378378378378299</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="6">
         <v>540.60810810800001</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="6">
         <v>648.72972972900004</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="6">
         <v>1675.8851351349999</v>
       </c>
-      <c r="R29" s="7">
+      <c r="R29" s="6">
         <v>1135.2770270200001</v>
       </c>
-      <c r="S29" s="5" t="s">
-        <v>22</v>
+      <c r="S29" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="6"/>
-    </row>
-    <row r="31" spans="4:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="7">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D31" s="6">
         <v>23</v>
       </c>
-      <c r="E31" s="7">
-        <v>10</v>
-      </c>
-      <c r="F31" s="7">
-        <v>12</v>
-      </c>
-      <c r="G31" s="7">
-        <v>31</v>
-      </c>
-      <c r="H31" s="7">
-        <v>21</v>
-      </c>
-      <c r="I31" s="7">
+      <c r="E31" s="6">
+        <v>10</v>
+      </c>
+      <c r="F31" s="6">
+        <v>12</v>
+      </c>
+      <c r="G31" s="6">
+        <v>31</v>
+      </c>
+      <c r="H31" s="6">
+        <v>21</v>
+      </c>
+      <c r="I31" s="6">
         <v>4000.5</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7">
+      <c r="J31" s="8">
+        <v>74</v>
+      </c>
+      <c r="K31" s="6">
         <v>0.135135135135135</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <v>0.162162162162162</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="6">
         <v>0.41891891891891803</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="6">
         <v>0.28378378378378299</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="6">
         <v>540.60810810800001</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="6">
         <v>648.72972972900004</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="6">
         <v>1675.8851351349999</v>
       </c>
-      <c r="R31" s="7">
+      <c r="R31" s="6">
         <v>1135.2770270200001</v>
       </c>
-      <c r="S31" s="5" t="s">
-        <v>23</v>
+      <c r="S31" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="9"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="9"/>
+      <c r="D33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
     <mergeCell ref="P29:P30"/>
     <mergeCell ref="Q29:Q30"/>
     <mergeCell ref="R29:R30"/>
@@ -1483,44 +1542,16 @@
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
